--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E5AB5-8050-46D6-86FE-72A1568E7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A608D3-9566-40C1-B821-07FD2CDE425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -1255,14 +1255,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="41">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1567,15 +1568,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2639,9 +2631,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="40" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3914,12 +3906,3468 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H26">
     <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I34" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" ref="I35:I36" si="1">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H4">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H16">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H34 G36:H36">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" ref="I5:I34" si="1">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" ref="I35" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H15">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H33 G35:H35">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="30" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I7" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" ref="I9:I27" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:H26">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H26">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3970,3462 +7418,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I34" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>1993</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>1994</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>1995</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>1996</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35:I36" si="1">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>2024</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H16">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H34 G36:H36">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>1994</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" ref="I5:I34" si="1">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-"),AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>1995</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>1996</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H15">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H33 G35:H35">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId7"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="30" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I7" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>1994</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>1995</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>1996</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10" t="str">
-        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="str">
-        <f t="shared" ref="I9:I27" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H26">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I36"/>
@@ -8404,7 +8396,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:H31 G33:H33 G35:H35 G3:H16">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8421,7 +8413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9453,7 +9445,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:H31 G33:H33 G35:H35">
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9503,7 +9495,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10479,14 +10471,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="10" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10535,14 +10527,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="10" t="str">
         <f t="shared" ref="I37" si="4">IF(OR(AND(G37&gt;1,G37&lt;&gt;"-"),AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -10554,7 +10546,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H32">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -10569,7 +10561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H37">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10598,7 +10590,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11521,14 +11513,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="10" t="str">
         <f t="shared" ref="I33:I35" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11605,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -11648,17 +11640,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H31 G3:H7">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H30">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11673,7 +11665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12777,7 +12769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H32">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12794,7 +12786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H37">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -12809,7 +12801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12824,7 +12816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -12839,7 +12831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -12909,11 +12901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13938,7 +13930,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -13953,7 +13945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H35">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15036,7 +15028,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15051,7 +15043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15066,7 +15058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H35">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A608D3-9566-40C1-B821-07FD2CDE425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C293F6A-AC5C-49B0-9893-A6BC3E0C8CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -3966,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11693,7 +11693,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27:G35"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -12901,11 +12901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>0</v>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C293F6A-AC5C-49B0-9893-A6BC3E0C8CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4303B-97B5-4C17-9BAE-9A539EBF6960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -12901,11 +12901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12981,7 +12981,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>6</v>
@@ -13969,11 +13969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14049,7 +14049,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>8</v>
@@ -14079,7 +14079,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD4303B-97B5-4C17-9BAE-9A539EBF6960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0729E-463F-4240-AAFA-D72A9ADD08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,9 +1216,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2942,7 +2939,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2957,28 +2954,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -3190,14 +3187,14 @@
         <v>9</v>
       </c>
       <c r="G9" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" ref="I9:I27" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3242,14 +3239,14 @@
         <v>9</v>
       </c>
       <c r="G11" s="18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H11" s="18">
         <v>1</v>
       </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -3272,11 +3269,11 @@
         <v>1</v>
       </c>
       <c r="H12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3295,14 +3292,14 @@
         <v>9</v>
       </c>
       <c r="G13" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3324,11 +3321,11 @@
         <v>1</v>
       </c>
       <c r="H14" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3347,7 +3344,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="18">
         <v>1</v>
@@ -3402,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3425,14 +3422,14 @@
         <v>9</v>
       </c>
       <c r="G18" s="18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H18" s="18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3451,10 +3448,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="18">
+        <v>12</v>
+      </c>
+      <c r="H19" s="18">
         <v>4</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3480,11 +3477,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3985,28 +3982,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -5158,28 +5155,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6297,7 +6294,7 @@
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -6308,10 +6305,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6319,10 +6316,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6330,10 +6327,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6341,10 +6338,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6352,10 +6349,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6363,10 +6360,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6394,7 +6391,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6409,28 +6406,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -6642,14 +6639,14 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" ref="I9:I27" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6728,11 +6725,11 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6751,7 +6748,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -6777,7 +6774,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -6806,11 +6803,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6829,7 +6826,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -6855,10 +6852,10 @@
         <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6881,10 +6878,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6907,10 +6904,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6933,10 +6930,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7426,7 +7423,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7441,28 +7438,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -7674,7 +7671,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -7700,7 +7697,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -7778,7 +7775,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
@@ -7804,7 +7801,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -7830,10 +7827,10 @@
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7856,10 +7853,10 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7908,10 +7905,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -7931,10 +7928,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7957,10 +7954,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="H20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7983,10 +7980,10 @@
         <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8009,10 +8006,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8035,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -8061,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -8087,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -8113,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -8139,14 +8136,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8395,12 +8392,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:H31 G33:H33 G35:H35 G3:H16">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31">
     <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H31 G33:H33 G35:H35 G3:H16">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8440,11 +8437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8459,28 +8456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -8666,10 +8663,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -8692,14 +8689,14 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8804,14 +8801,14 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8833,11 +8830,11 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8856,14 +8853,14 @@
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8882,7 +8879,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -8908,14 +8905,14 @@
         <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8934,14 +8931,14 @@
         <v>9</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8960,10 +8957,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -8986,10 +8983,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -9012,7 +9009,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -9038,7 +9035,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -9064,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -9090,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -9116,7 +9113,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -9142,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -9168,14 +9165,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9495,7 +9492,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9510,28 +9507,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -9747,14 +9744,14 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9773,14 +9770,14 @@
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10004,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10027,14 +10024,14 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10053,14 +10050,14 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10079,14 +10076,14 @@
         <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10191,14 +10188,14 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10219,14 +10216,14 @@
         <v>9</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10247,14 +10244,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10275,14 +10272,14 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10303,14 +10300,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10331,14 +10328,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10359,14 +10356,14 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10499,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -10527,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>0</v>
@@ -10590,7 +10587,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10605,28 +10602,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -10841,11 +10838,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" ref="I9:I32" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11074,11 +11071,11 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11180,11 +11177,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11261,14 +11258,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11289,14 +11286,14 @@
         <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11317,14 +11314,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11513,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>0</v>
@@ -11693,7 +11690,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11708,28 +11705,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -11971,11 +11968,11 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10" t="str">
         <f t="shared" ref="I10:I33" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12264,14 +12261,14 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12402,14 +12399,14 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12458,14 +12455,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12905,7 +12902,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12920,28 +12917,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -13743,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>0</v>
@@ -13883,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>0</v>
@@ -13969,7 +13966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13988,28 +13985,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0729E-463F-4240-AAFA-D72A9ADD08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2C74F-2231-40AB-AB1E-32AD576EDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -3967,7 +3967,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4043,7 +4043,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
@@ -5136,11 +5136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5216,7 +5216,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -8437,7 +8437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2C74F-2231-40AB-AB1E-32AD576EDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFEDCF-F27B-437E-91DB-46BF64673603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -26,6 +26,19 @@
     <sheet name="100₽" sheetId="12" r:id="rId11"/>
     <sheet name="Links" sheetId="10" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1₽ '!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'10₽ '!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'100₽'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10копеек'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1копейка '!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2₽ '!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20₽'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'5₽ '!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'50₽ '!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'50копеек'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5копеек'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -467,7 +480,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -607,7 +620,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -622,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -652,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -677,7 +690,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -692,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -707,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -722,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -812,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="59">
   <si>
     <t>-</t>
   </si>
@@ -827,12 +840,6 @@
   </si>
   <si>
     <t>1₽</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>M</t>
@@ -978,6 +985,24 @@
   <si>
     <t>100к-200к</t>
   </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Magnetic</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Magnetic</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
 </sst>
 </file>
 
@@ -1078,7 +1103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1153,13 +1178,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1230,8 +1266,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1246,13 +1294,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1261,14 +1312,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2133,13 +2176,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2182,13 +2225,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2349,13 +2392,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2398,13 +2441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2457,13 +2500,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2506,13 +2549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2935,64 +2978,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3150,15 +3193,15 @@
         <v>1997</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="18">
         <v>2</v>
@@ -3176,15 +3219,15 @@
         <v>1998</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18">
         <v>8</v>
@@ -3202,15 +3245,15 @@
         <v>1999</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -3228,15 +3271,15 @@
         <v>2000</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="18">
         <v>11</v>
@@ -3255,15 +3298,15 @@
         <v>2001</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="18">
         <v>1</v>
@@ -3281,15 +3324,15 @@
         <v>2002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="18">
         <v>3</v>
@@ -3307,15 +3350,15 @@
         <v>2003</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
@@ -3333,15 +3376,15 @@
         <v>2004</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="18">
         <v>3</v>
@@ -3359,15 +3402,15 @@
         <v>2005</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="18">
         <v>1</v>
@@ -3385,15 +3428,15 @@
         <v>2006</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="18">
         <v>2</v>
@@ -3411,15 +3454,15 @@
         <v>2007</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="18">
         <v>16</v>
@@ -3437,15 +3480,15 @@
         <v>2008</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="18">
         <v>12</v>
@@ -3463,15 +3506,15 @@
         <v>2009</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
@@ -3609,12 +3652,12 @@
         <v>2014</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -3695,12 +3738,12 @@
         <v>2017</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -3895,15 +3938,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="40" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3920,7 +3963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,7 +3980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3967,60 +4010,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4028,19 +4071,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -4058,19 +4101,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -4088,19 +4131,19 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -5044,9 +5087,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5136,64 +5179,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5201,19 +5244,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -5231,19 +5274,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -6184,9 +6227,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6292,13 +6335,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6306,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6317,10 +6360,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6328,10 +6371,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -6339,10 +6382,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6350,10 +6393,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6361,10 +6404,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6391,60 +6434,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="30" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6602,15 +6645,15 @@
         <v>1997</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -6628,15 +6671,15 @@
         <v>1998</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -6685,15 +6728,15 @@
         <v>2000</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -6711,15 +6754,15 @@
         <v>2001</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -6737,15 +6780,15 @@
         <v>2002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -6763,15 +6806,15 @@
         <v>2003</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -6789,15 +6832,15 @@
         <v>2004</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -6815,15 +6858,15 @@
         <v>2005</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -6841,15 +6884,15 @@
         <v>2006</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>17</v>
@@ -6867,15 +6910,15 @@
         <v>2007</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -6893,15 +6936,15 @@
         <v>2008</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
@@ -6919,15 +6962,15 @@
         <v>2009</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>8</v>
@@ -7065,12 +7108,12 @@
         <v>2014</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -7151,12 +7194,12 @@
         <v>2017</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -7351,15 +7394,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7376,7 +7419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7393,7 +7436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7423,60 +7466,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7634,15 +7677,15 @@
         <v>1997</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -7660,15 +7703,15 @@
         <v>1998</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -7686,15 +7729,15 @@
         <v>1999</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7712,15 +7755,15 @@
         <v>2000</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -7738,15 +7781,15 @@
         <v>2001</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -7764,15 +7807,15 @@
         <v>2002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -7790,15 +7833,15 @@
         <v>2003</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
@@ -7816,15 +7859,15 @@
         <v>2004</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>12</v>
@@ -7842,15 +7885,15 @@
         <v>2005</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>21</v>
@@ -7868,15 +7911,15 @@
         <v>2006</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>22</v>
@@ -7894,15 +7937,15 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>18</v>
@@ -7917,15 +7960,15 @@
         <v>2007</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>50</v>
@@ -7943,15 +7986,15 @@
         <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>121</v>
@@ -7969,15 +8012,15 @@
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>55</v>
@@ -7995,15 +8038,15 @@
         <v>2010</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>44</v>
@@ -8021,12 +8064,12 @@
         <v>2011</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -8047,12 +8090,12 @@
         <v>2012</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -8073,15 +8116,15 @@
         <v>2013</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>13</v>
@@ -8099,12 +8142,12 @@
         <v>2014</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -8125,12 +8168,12 @@
         <v>2015</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -8385,15 +8428,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8410,7 +8453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8441,60 +8484,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="24" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8652,15 +8695,15 @@
         <v>1997</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>11</v>
@@ -8678,15 +8721,15 @@
         <v>1998</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -8704,15 +8747,15 @@
         <v>1999</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -8790,15 +8833,15 @@
         <v>2002</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -8816,15 +8859,15 @@
         <v>2003</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -8842,15 +8885,15 @@
         <v>2004</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -8868,15 +8911,15 @@
         <v>2005</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -8894,15 +8937,15 @@
         <v>2006</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -8920,15 +8963,15 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>4</v>
@@ -8946,15 +8989,15 @@
         <v>2007</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>13</v>
@@ -8972,15 +9015,15 @@
         <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>7</v>
@@ -8998,15 +9041,15 @@
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -9024,15 +9067,15 @@
         <v>2010</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -9050,12 +9093,12 @@
         <v>2011</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -9076,12 +9119,12 @@
         <v>2012</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -9102,15 +9145,15 @@
         <v>2013</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>18</v>
@@ -9128,12 +9171,12 @@
         <v>2014</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -9154,12 +9197,12 @@
         <v>2015</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -9434,15 +9477,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:H31 G33:H33 G35:H35">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9486,129 +9529,135 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="5" customWidth="1"/>
+    <col min="11" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I10" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="str">
+        <f t="shared" ref="J3:J10" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="str">
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -9621,24 +9670,25 @@
       <c r="D5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1994</v>
       </c>
@@ -9651,24 +9701,25 @@
       <c r="D6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1995</v>
       </c>
@@ -9681,24 +9732,25 @@
       <c r="D7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -9711,102 +9763,106 @@
       <c r="D8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" ref="I11:I32" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" ref="J11:J32" si="1">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-"),AND(I11&gt;1,I11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2000</v>
       </c>
@@ -9819,24 +9875,25 @@
       <c r="D12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -9849,24 +9906,25 @@
       <c r="D13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -9879,24 +9937,25 @@
       <c r="D14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -9909,24 +9968,25 @@
       <c r="D15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -9939,612 +9999,634 @@
       <c r="D16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2007</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="J20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="J21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="17"/>
+      <c r="F25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="17"/>
+      <c r="F27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>10</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>7</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10" t="str">
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2016</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="17"/>
+      <c r="F29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2017</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2018</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2019</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2020</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" ref="I33" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="str">
+        <f t="shared" ref="J33" si="2">IF(OR(AND(H33&gt;1,H33&lt;&gt;"-"),AND(I33&gt;1,I33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2021</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" ref="I34:I36" si="3">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="str">
+        <f t="shared" ref="J34:J36" si="3">IF(OR(AND(H34&gt;1,H34&lt;&gt;"-"),AND(I34&gt;1,I34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>2022</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="17"/>
+      <c r="F35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>2</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>2023</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="17"/>
+      <c r="F36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="str">
+      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>2024</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="17"/>
+      <c r="F37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="str">
-        <f t="shared" ref="I37" si="4">IF(OR(AND(G37&gt;1,G37&lt;&gt;"-"),AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="str">
+        <f t="shared" ref="J37" si="4">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-"),AND(I37&gt;1,I37&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H32">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="H3:I32">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -10557,9 +10639,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H37">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+  <conditionalFormatting sqref="H33:I37">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -10587,60 +10669,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="30" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10798,15 +10880,15 @@
         <v>1997</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -10824,15 +10906,15 @@
         <v>1998</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -10850,15 +10932,15 @@
         <v>1999</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -11057,15 +11139,15 @@
         <v>2006</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -11083,15 +11165,15 @@
         <v>2007</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -11109,15 +11191,15 @@
         <v>2008</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -11135,15 +11217,15 @@
         <v>2009</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -11161,17 +11243,17 @@
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -11189,17 +11271,17 @@
         <v>2010</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -11217,14 +11299,14 @@
         <v>2011</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -11245,14 +11327,14 @@
         <v>2012</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -11273,17 +11355,17 @@
         <v>2013</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -11301,14 +11383,14 @@
         <v>2014</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -11329,14 +11411,14 @@
         <v>2015</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -11357,14 +11439,14 @@
         <v>2016</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -11385,14 +11467,14 @@
         <v>2017</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>0</v>
@@ -11413,14 +11495,14 @@
         <v>2018</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>0</v>
@@ -11441,14 +11523,14 @@
         <v>2019</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>0</v>
@@ -11469,14 +11551,14 @@
         <v>2020</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>0</v>
@@ -11497,14 +11579,14 @@
         <v>2021</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>0</v>
@@ -11525,14 +11607,14 @@
         <v>2022</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>0</v>
@@ -11553,14 +11635,14 @@
         <v>2023</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>0</v>
@@ -11581,14 +11663,14 @@
         <v>2024</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>0</v>
@@ -11605,9 +11687,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -11637,17 +11719,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H31 G3:H7">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H30">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11662,7 +11744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11684,126 +11766,132 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="27" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="5" customWidth="1"/>
+    <col min="11" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I8" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="str">
+        <f t="shared" ref="J4:J8" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -11816,24 +11904,25 @@
       <c r="D5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1994</v>
       </c>
@@ -11846,24 +11935,25 @@
       <c r="D6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1995</v>
       </c>
@@ -11876,24 +11966,25 @@
       <c r="D7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -11906,76 +11997,79 @@
       <c r="D8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="str">
-        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f>IF(OR(AND(H9&gt;1,H9&lt;&gt;"-"),AND(I9&gt;1,I9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="10" t="str">
-        <f t="shared" ref="I10:I33" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J10" s="10" t="str">
+        <f t="shared" ref="J10:J33" si="1">IF(OR(AND(H10&gt;1,H10&lt;&gt;"-"),AND(I10&gt;1,I10&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1999</v>
       </c>
@@ -11988,24 +12082,25 @@
       <c r="D11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2000</v>
       </c>
@@ -12018,24 +12113,25 @@
       <c r="D12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -12048,24 +12144,25 @@
       <c r="D13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -12078,24 +12175,25 @@
       <c r="D14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -12108,24 +12206,25 @@
       <c r="D15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -12138,24 +12237,25 @@
       <c r="D16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -12168,24 +12268,25 @@
       <c r="D17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
@@ -12198,24 +12299,25 @@
       <c r="D18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2007</v>
       </c>
@@ -12228,532 +12330,551 @@
       <c r="D19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="10" t="str">
+      <c r="J20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="17"/>
+      <c r="F25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="str">
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="17"/>
+      <c r="F27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2016</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="17"/>
+      <c r="F29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2017</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2018</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2019</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>2</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="str">
+      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2020</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2021</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" ref="I34:I36" si="2">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="str">
+        <f t="shared" ref="J34:J36" si="2">IF(OR(AND(H34&gt;1,H34&lt;&gt;"-"),AND(I34&gt;1,I34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>2022</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="17"/>
+      <c r="F35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>2023</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="17"/>
+      <c r="F36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="str">
+      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>2024</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="str">
-        <f t="shared" ref="I37" si="3">IF(OR(AND(G37&gt;1,G37&lt;&gt;"-"),AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10" t="str">
+        <f t="shared" ref="J37" si="3">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-"),AND(I37&gt;1,I37&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:H32">
+  <conditionalFormatting sqref="H9:I32">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12765,12 +12886,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H32">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+  <conditionalFormatting sqref="H9:I32">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H8">
+  <conditionalFormatting sqref="H5:I8">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12782,9 +12903,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H37">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+  <conditionalFormatting sqref="H33:I37">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -12797,9 +12918,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -12812,9 +12933,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -12827,9 +12948,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -12842,7 +12963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12862,20 +12983,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!G4))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G5:H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{1E02E7F9-1189-407A-99E9-E8B60DDE1519}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!H3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -12886,7 +12993,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
+          <xm:sqref>H5:I8 I4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12896,129 +13003,135 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="5" customWidth="1"/>
+    <col min="11" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I9" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J3" s="10" t="str">
+        <f t="shared" ref="J3:J9" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>11</v>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1994</v>
       </c>
@@ -13031,24 +13144,25 @@
       <c r="D5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1995</v>
       </c>
@@ -13061,24 +13175,25 @@
       <c r="D6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1996</v>
       </c>
@@ -13091,24 +13206,25 @@
       <c r="D7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1997</v>
       </c>
@@ -13121,24 +13237,25 @@
       <c r="D8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1998</v>
       </c>
@@ -13151,24 +13268,25 @@
       <c r="D9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1999</v>
       </c>
@@ -13181,24 +13299,25 @@
       <c r="D10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="str">
-        <f t="shared" ref="I10:I31" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f t="shared" ref="J10:J31" si="1">IF(OR(AND(H10&gt;1,H10&lt;&gt;"-"),AND(I10&gt;1,I10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2000</v>
       </c>
@@ -13211,24 +13330,25 @@
       <c r="D11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2001</v>
       </c>
@@ -13241,24 +13361,25 @@
       <c r="D12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2002</v>
       </c>
@@ -13271,24 +13392,25 @@
       <c r="D13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2003</v>
       </c>
@@ -13301,24 +13423,25 @@
       <c r="D14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2004</v>
       </c>
@@ -13331,24 +13454,25 @@
       <c r="D15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2005</v>
       </c>
@@ -13361,24 +13485,25 @@
       <c r="D16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2006</v>
       </c>
@@ -13391,24 +13516,25 @@
       <c r="D17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2007</v>
       </c>
@@ -13421,24 +13547,25 @@
       <c r="D18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2008</v>
       </c>
@@ -13451,164 +13578,170 @@
       <c r="D19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2009</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2010</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2011</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2012</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E23" s="17"/>
+      <c r="F23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2013</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2014</v>
       </c>
@@ -13621,314 +13754,325 @@
       <c r="D25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2015</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E26" s="17"/>
+      <c r="F26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2016</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="17"/>
+      <c r="F27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2017</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2018</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="17"/>
+      <c r="F29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>8</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2019</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2020</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2021</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" ref="I32:I34" si="2">IF(OR(AND(G32&gt;1,G32&lt;&gt;"-"),AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f t="shared" ref="J32:J34" si="2">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-"),AND(I32&gt;1,I32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2022</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="str">
+      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2023</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>6</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="str">
+      <c r="I34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>2024</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35" si="3">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10" t="str">
+        <f t="shared" ref="J35" si="3">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-"),AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H30">
+  <conditionalFormatting sqref="H3:I30">
     <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -13941,9 +14085,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H35">
+  <conditionalFormatting sqref="H31:I35">
     <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -13970,60 +14114,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="5" customWidth="1"/>
     <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14031,19 +14175,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -14061,19 +14205,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -15017,9 +15161,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFEDCF-F27B-437E-91DB-46BF64673603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E7FCB0-082D-43B0-B3B1-DAD89C1E585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2982,7 +2982,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E7FCB0-082D-43B0-B3B1-DAD89C1E585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176CD884-AC55-4966-ABD2-F32776A41E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="60">
   <si>
     <t>-</t>
   </si>
@@ -1003,12 +1003,15 @@
   <si>
     <t>Subtype_1#Special_marks_1</t>
   </si>
+  <si>
+    <t>35.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1055,6 +1058,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1195,7 +1205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1297,13 +1307,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2671,9 +2716,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2976,13 +3021,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3937,6 +3982,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
@@ -3946,7 +4017,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,7 +4034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3980,7 +4051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4004,13 +4075,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A35:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5086,6 +5157,36 @@
         <v/>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" ref="I37" si="2">IF(OR(AND(G37&gt;1,G37&lt;&gt;"-"),AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
   <mergeCells count="4">
@@ -5095,7 +5196,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5110,7 +5211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5125,7 +5226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5140,7 +5241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H34 G36:H36">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5154,8 +5255,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G35:H35 G37:H37">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5177,13 +5278,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6222,7 +6323,37 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I35:I36" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6235,7 +6366,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6250,7 +6381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6265,7 +6396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H15">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6280,7 +6411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H33 G35:H35">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6294,8 +6425,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G34:H34 G36:H36">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6428,13 +6559,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7393,6 +7524,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="4">
@@ -7402,7 +7559,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7419,7 +7576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7436,7 +7593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7460,13 +7617,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A35:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8427,6 +8584,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="4">
@@ -8435,12 +8618,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31 G37:H37">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31 G37:H37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8453,7 +8636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8478,13 +8661,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A35:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9476,6 +9659,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" ref="I37" si="3">IF(OR(AND(G37&gt;1,G37&lt;&gt;"-"),AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <mergeCells count="4">
@@ -9484,12 +9697,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:H31 G33:H33 G35:H35">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G8:H31 G33:H33 G35:H35 G37:H37">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H31">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H31 G37:H37">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9529,13 +9742,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10602,8 +10815,8 @@
       <c r="F37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>0</v>
+      <c r="G37" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="H37" s="1">
         <v>5</v>
@@ -10612,7 +10825,36 @@
         <v>0</v>
       </c>
       <c r="J37" s="10" t="str">
-        <f t="shared" ref="J37" si="4">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-"),AND(I37&gt;1,I37&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J37:J38" si="4">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-"),AND(I37&gt;1,I37&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>Can exchange</v>
       </c>
     </row>
@@ -10625,10 +10867,10 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I32">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10640,10 +10882,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I37">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:I38">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10665,11 +10922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11676,14 +11933,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="10" t="str">
         <f t="shared" ref="I36" si="3">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -11719,17 +11976,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H31 G3:H7">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H30">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11744,7 +12001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11766,13 +12023,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12866,6 +13123,35 @@
         <v/>
       </c>
     </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="str">
+        <f t="shared" ref="J38" si="4">IF(OR(AND(H38&gt;1,H38&lt;&gt;"-"),AND(I38&gt;1,I38&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <mergeCells count="4">
@@ -12875,7 +13161,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:I32">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12887,11 +13173,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I32">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I8">
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I37">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12903,11 +13204,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I37">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12918,9 +13219,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -12933,24 +13249,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+  <conditionalFormatting sqref="H38:I38">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -12963,7 +13264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I4:I8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12975,6 +13276,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I8">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12982,8 +13288,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!H3))))</xm:f>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!H4))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -12993,7 +13299,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5:I8 I4</xm:sqref>
+          <xm:sqref>H5:H8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13003,13 +13309,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14048,8 +14354,8 @@
       <c r="F35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>0</v>
+      <c r="G35" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -14058,7 +14364,38 @@
         <v>0</v>
       </c>
       <c r="J35" s="10" t="str">
-        <f t="shared" ref="J35" si="3">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-"),AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J35:J36" si="3">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-"),AND(I35&gt;1,I35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14071,10 +14408,10 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I30">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -14086,8 +14423,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I35">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:I36">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -14108,13 +14460,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15156,7 +15508,37 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="str">
-        <f t="shared" ref="I35" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I35:I36" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -15169,7 +15551,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15184,7 +15566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15198,8 +15580,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H35">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G5:H36">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176CD884-AC55-4966-ABD2-F32776A41E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99608E14-A015-46F7-8713-431AD8A2B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="60">
   <si>
     <t>-</t>
   </si>
@@ -1282,6 +1282,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,9 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1317,6 +1317,15 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1348,15 +1357,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2716,9 +2716,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3027,7 +3027,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="D28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3042,25 +3042,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -4096,25 +4096,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -5196,7 +5196,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5211,7 +5211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5226,7 +5226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5241,7 +5241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H34 G36:H36">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5256,7 +5256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G37:H37">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5299,25 +5299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -6366,7 +6366,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6381,7 +6381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6396,7 +6396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H15">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6411,7 +6411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H33 G35:H35">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6426,7 +6426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6565,7 +6565,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A34:I36"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6580,25 +6580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -7638,25 +7638,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -8682,25 +8682,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -9748,7 +9748,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9763,26 +9763,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="F37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H37" s="1">
@@ -10831,7 +10831,7 @@
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>13</v>
@@ -10897,7 +10897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10920,13 +10920,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10941,25 +10941,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -11933,13 +11933,41 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" ref="I36:I37" si="3">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="str">
-        <f t="shared" ref="I36" si="3">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>Can exchange</v>
       </c>
     </row>
@@ -11976,17 +12004,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H31 G3:H7">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H30">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G32:H35 G37:H37">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12001,7 +12029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12044,26 +12072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -13173,7 +13201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I32">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13190,7 +13218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I37">
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -13205,7 +13233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -13220,7 +13248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13235,7 +13263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13250,7 +13278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -13277,7 +13305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I8">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13330,26 +13358,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -14354,7 +14382,7 @@
       <c r="F35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="1">
@@ -14408,7 +14436,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I30">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14423,7 +14451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I35">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14438,7 +14466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14481,25 +14509,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
@@ -15551,7 +15579,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15566,7 +15594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15581,7 +15609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H36">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99608E14-A015-46F7-8713-431AD8A2B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC77EC-73CE-48D1-8D79-8D7BD31303F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -9744,7 +9744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10922,11 +10922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12057,7 +12057,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>0</v>
@@ -13343,7 +13343,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14386,7 +14386,7 @@
         <v>59</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>0</v>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1992-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC77EC-73CE-48D1-8D79-8D7BD31303F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F76E786-3879-4534-A303-DD26298F6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -1316,7 +1316,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2716,9 +2732,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3027,7 +3043,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="D28:I29"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3252,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-"),AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -3278,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" ref="I9:I27" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
@@ -3380,10 +3396,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3487,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3510,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H18" s="18">
         <v>23</v>
@@ -3562,14 +3578,14 @@
         <v>7</v>
       </c>
       <c r="G20" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="18">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4017,7 +4033,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4034,7 +4050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4051,7 +4067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5196,7 +5212,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5211,7 +5227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5226,7 +5242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5241,7 +5257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H34 G36:H36">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5256,7 +5272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35 G37:H37">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6366,7 +6382,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6381,7 +6397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6396,7 +6412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H15">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6411,7 +6427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H33 G35:H35">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6426,7 +6442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6565,7 +6581,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6948,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -6977,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7026,10 +7042,10 @@
         <v>7</v>
       </c>
       <c r="G17" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7052,7 +7068,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1">
         <v>6</v>
@@ -7078,10 +7094,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -7559,7 +7575,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H26">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,7 +7592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7593,7 +7609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7619,11 +7635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A35:I37"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7949,7 +7965,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -8004,7 +8020,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8053,7 +8069,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1">
         <v>7</v>
@@ -8079,10 +8095,10 @@
         <v>7</v>
       </c>
       <c r="G17" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8108,7 +8124,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -8128,7 +8144,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
@@ -8258,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -8618,12 +8634,29 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31 G37:H37">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G19:H31 G37:H37">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G18:H31 G37:H37">
+  <conditionalFormatting sqref="G33:H33 G35:H35 G3:H16 G19:H31 G37:H37">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8636,7 +8669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8667,7 +8700,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A35:I37"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9183,10 +9216,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -9209,7 +9242,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -9261,7 +9294,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -9365,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -9698,7 +9731,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:H31 G33:H33 G35:H35 G37:H37">
-    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9744,11 +9777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10041,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -10328,7 +10361,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -10355,7 +10388,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -10471,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -10529,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -10867,7 +10900,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I32">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -10882,7 +10915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I37">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10897,7 +10930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12004,17 +12037,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H31 G3:H7">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H30">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H35 G37:H37">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12029,7 +12062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -13201,7 +13234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I32">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13218,7 +13251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I37">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -13233,7 +13266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -13248,7 +13281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13263,7 +13296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13278,7 +13311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:I38">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -13305,7 +13338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I8">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13343,7 +13376,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13949,14 +13982,14 @@
         <v>7</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13978,14 +14011,14 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14007,14 +14040,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14036,14 +14069,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14436,7 +14469,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I30">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -14451,7 +14484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I35">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14466,7 +14499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15579,7 +15612,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15594,7 +15627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15609,7 +15642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H36">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
